--- a/biology/Médecine/Fabella/Fabella.xlsx
+++ b/biology/Médecine/Fabella/Fabella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fabella est un os sésamoïde situé au niveau du genou dans le tendon du chef latéral du muscle gastrocnémien, en arrière du condyle fémoral latéral avec lequel elle s'articule.
-Le terme « fabella » est d'origine latine et signifie « petite fève »[1],[2].
+Le terme « fabella » est d'origine latine et signifie « petite fève »,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considérée comme une variante de l'anatomie normale, la fabella est présente chez près de 30 % des individus européens[3],[1]. Des prévalences voisines de 60 % seraient retrouvées dans la population asiatique[3]. Lorsqu'elle est présente, la fabella est plus fréquemment bilatérale qu'unilatérale[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considérée comme une variante de l'anatomie normale, la fabella est présente chez près de 30 % des individus européens,. Des prévalences voisines de 60 % seraient retrouvées dans la population asiatique. Lorsqu'elle est présente, la fabella est plus fréquemment bilatérale qu'unilatérale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fabella est située dans le tendon du chef latéral du muscle gastrocnémien et apparaît entourée sur son versant antérieur comme postérieur par les fibres tendineuses sur les études histologiques[3]. Elle est reliée dans la plupart des cas à la tête de la fibula par un ligament fabello-fibulaire[3]. Sa taille est variable, comprise entre 4 et 13 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fabella est située dans le tendon du chef latéral du muscle gastrocnémien et apparaît entourée sur son versant antérieur comme postérieur par les fibres tendineuses sur les études histologiques. Elle est reliée dans la plupart des cas à la tête de la fibula par un ligament fabello-fibulaire. Sa taille est variable, comprise entre 4 et 13 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asymptomatique dans la grande majorité des cas, la fabella peut être associée à une douleur de la face postérieure du genou[2]. Des cas de fracture de la fabella ont été rapportés dans la littérature avec une symptomatologie douloureuse [4]. Il ne faut toutefois pas confondre une fracture de la fabella avec la présence constitutionnelle d'une fabella bipartite voire tripartite.
-Le déplacement de la fabella sur un cliché radiographique est un signe en faveur d'un épanchement intra-articulaire de grande abondance[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asymptomatique dans la grande majorité des cas, la fabella peut être associée à une douleur de la face postérieure du genou. Des cas de fracture de la fabella ont été rapportés dans la littérature avec une symptomatologie douloureuse . Il ne faut toutefois pas confondre une fracture de la fabella avec la présence constitutionnelle d'une fabella bipartite voire tripartite.
+Le déplacement de la fabella sur un cliché radiographique est un signe en faveur d'un épanchement intra-articulaire de grande abondance.
 </t>
         </is>
       </c>
